--- a/database/industries/ravankar/shaspa/income/quarterly/dollar_cumulative.xlsx
+++ b/database/industries/ravankar/shaspa/income/quarterly/dollar_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BC10BD-7FA5-4716-B15E-6B4135A0EC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51577E0B-F7D2-405D-80BB-8626D0B00E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -633,7 +633,7 @@
     <col min="11" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +647,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +693,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,7 +709,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,7 +739,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -811,7 +811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,7 +825,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -861,7 +861,7 @@
         <v>426444</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -897,7 +897,7 @@
         <v>-325514</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
@@ -933,7 +933,7 @@
         <v>100930</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
@@ -969,7 +969,7 @@
         <v>-15278</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>86886</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>-728</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>13812</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>99970</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>-17354</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>82616</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>82616</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>176104</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/ravankar/shaspa/income/quarterly/dollar_cumulative.xlsx
+++ b/database/industries/ravankar/shaspa/income/quarterly/dollar_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\shaspa\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\ravankar\shaspa\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51577E0B-F7D2-405D-80BB-8626D0B00E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA5C696-ACD3-440C-A9FE-15CF8F77AB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="4530" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>شسپا-نفت سپاهان</t>
@@ -37,6 +37,27 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>9 ماهه منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>3 ماهه منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>6 ماهه منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>9 ماهه منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>3 ماهه منتهی به 1399/03</t>
+  </si>
+  <si>
     <t>6 ماهه منتهی به 1399/06</t>
   </si>
   <si>
@@ -67,9 +88,39 @@
     <t>9 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
+    <t>3 ماهه منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>6 ماهه منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-04-15 (9)</t>
+  </si>
+  <si>
+    <t>1399-04-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-14 (4)</t>
+  </si>
+  <si>
+    <t>1399-10-27 (2)</t>
+  </si>
+  <si>
+    <t>1400-04-09 (8)</t>
+  </si>
+  <si>
+    <t>1400-05-10 (3)</t>
+  </si>
+  <si>
     <t>1400-09-14 (5)</t>
   </si>
   <si>
@@ -88,18 +139,27 @@
     <t>1401-11-04 (2)</t>
   </si>
   <si>
-    <t>1401-11-04 (6)</t>
-  </si>
-  <si>
-    <t>1401-04-28</t>
-  </si>
-  <si>
-    <t>1401-09-15 (2)</t>
+    <t>1402-04-06 (8)</t>
+  </si>
+  <si>
+    <t>1402-04-28 (2)</t>
+  </si>
+  <si>
+    <t>1402-09-15 (4)</t>
   </si>
   <si>
     <t>1401-11-04</t>
   </si>
   <si>
+    <t>1402-09-15 (5)</t>
+  </si>
+  <si>
+    <t>1402-04-28</t>
+  </si>
+  <si>
+    <t>1402-09-15 (2)</t>
+  </si>
+  <si>
     <t>فروش</t>
   </si>
   <si>
@@ -124,13 +184,13 @@
     <t>سود (زیان) عملیاتی</t>
   </si>
   <si>
-    <t>هزینه های مالی</t>
-  </si>
-  <si>
-    <t>خالص سایر درامدها و هزینه های غیرعملیاتی</t>
-  </si>
-  <si>
-    <t>سود (زیان) خالص عملیات در حال تداوم قبل از مالیات</t>
+    <t>هزینه‌های مالی</t>
+  </si>
+  <si>
+    <t>خالص سایر درآمدها و هزینه‌های غیرعملیاتی</t>
+  </si>
+  <si>
+    <t>سود (زیان) عملیات در حال تداوم قبل از مالیات</t>
   </si>
   <si>
     <t>مالیات</t>
@@ -618,22 +678,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="14" max="16" width="28" customWidth="1"/>
+    <col min="17" max="17" width="29" customWidth="1"/>
+    <col min="18" max="20" width="28" customWidth="1"/>
+    <col min="21" max="21" width="29" customWidth="1"/>
+    <col min="22" max="23" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -646,8 +712,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,8 +738,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -678,8 +764,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -692,8 +788,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -708,8 +814,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -724,8 +840,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -738,8 +864,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -774,44 +910,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -824,514 +1020,944 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>214514</v>
+      </c>
+      <c r="E11" s="13">
+        <v>302314</v>
+      </c>
+      <c r="F11" s="13">
+        <v>90193</v>
+      </c>
+      <c r="G11" s="13">
+        <v>194087</v>
+      </c>
+      <c r="H11" s="13">
+        <v>279487</v>
+      </c>
+      <c r="I11" s="13">
+        <v>369179</v>
+      </c>
+      <c r="J11" s="13">
+        <v>54067</v>
+      </c>
+      <c r="K11" s="13">
         <v>125964</v>
       </c>
-      <c r="E11" s="13">
+      <c r="L11" s="13">
         <v>211025</v>
       </c>
-      <c r="F11" s="13">
+      <c r="M11" s="13">
         <v>317572</v>
       </c>
-      <c r="G11" s="13">
+      <c r="N11" s="13">
         <v>119932</v>
       </c>
-      <c r="H11" s="13">
+      <c r="O11" s="13">
         <v>263895</v>
       </c>
-      <c r="I11" s="13">
+      <c r="P11" s="13">
         <v>382885</v>
       </c>
-      <c r="J11" s="13">
+      <c r="Q11" s="13">
         <v>500193</v>
       </c>
-      <c r="K11" s="13">
+      <c r="R11" s="13">
         <v>153843</v>
       </c>
-      <c r="L11" s="13">
+      <c r="S11" s="13">
         <v>316335</v>
       </c>
-      <c r="M11" s="13">
+      <c r="T11" s="13">
         <v>426444</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U11" s="13">
+        <v>520118</v>
+      </c>
+      <c r="V11" s="13">
+        <v>92569</v>
+      </c>
+      <c r="W11" s="13">
+        <v>202967</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-127024</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-197766</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-60781</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-145540</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-215729</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-281719</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-39245</v>
+      </c>
+      <c r="K12" s="11">
         <v>-91955</v>
       </c>
-      <c r="E12" s="11">
+      <c r="L12" s="11">
         <v>-148030</v>
       </c>
-      <c r="F12" s="11">
+      <c r="M12" s="11">
         <v>-227597</v>
       </c>
-      <c r="G12" s="11">
+      <c r="N12" s="11">
         <v>-82864</v>
       </c>
-      <c r="H12" s="11">
+      <c r="O12" s="11">
         <v>-182494</v>
       </c>
-      <c r="I12" s="11">
+      <c r="P12" s="11">
         <v>-265776</v>
       </c>
-      <c r="J12" s="11">
+      <c r="Q12" s="11">
         <v>-365189</v>
       </c>
-      <c r="K12" s="11">
+      <c r="R12" s="11">
         <v>-109233</v>
       </c>
-      <c r="L12" s="11">
+      <c r="S12" s="11">
         <v>-242014</v>
       </c>
-      <c r="M12" s="11">
+      <c r="T12" s="11">
         <v>-325514</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U12" s="11">
+        <v>-384033</v>
+      </c>
+      <c r="V12" s="11">
+        <v>-62538</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-142125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>87490</v>
+      </c>
+      <c r="E13" s="15">
+        <v>104548</v>
+      </c>
+      <c r="F13" s="15">
+        <v>29412</v>
+      </c>
+      <c r="G13" s="15">
+        <v>48546</v>
+      </c>
+      <c r="H13" s="15">
+        <v>63758</v>
+      </c>
+      <c r="I13" s="15">
+        <v>87460</v>
+      </c>
+      <c r="J13" s="15">
+        <v>14822</v>
+      </c>
+      <c r="K13" s="15">
         <v>34010</v>
       </c>
-      <c r="E13" s="15">
+      <c r="L13" s="15">
         <v>62994</v>
       </c>
-      <c r="F13" s="15">
+      <c r="M13" s="15">
         <v>89974</v>
       </c>
-      <c r="G13" s="15">
+      <c r="N13" s="15">
         <v>37068</v>
       </c>
-      <c r="H13" s="15">
+      <c r="O13" s="15">
         <v>81400</v>
       </c>
-      <c r="I13" s="15">
+      <c r="P13" s="15">
         <v>117110</v>
       </c>
-      <c r="J13" s="15">
+      <c r="Q13" s="15">
         <v>135003</v>
       </c>
-      <c r="K13" s="15">
+      <c r="R13" s="15">
         <v>44609</v>
       </c>
-      <c r="L13" s="15">
+      <c r="S13" s="15">
         <v>74321</v>
       </c>
-      <c r="M13" s="15">
+      <c r="T13" s="15">
         <v>100930</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U13" s="15">
+        <v>136086</v>
+      </c>
+      <c r="V13" s="15">
+        <v>30031</v>
+      </c>
+      <c r="W13" s="15">
+        <v>60842</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-16202</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-20376</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-6430</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-12110</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-16595</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-20059</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-4749</v>
+      </c>
+      <c r="K14" s="11">
         <v>-8084</v>
       </c>
-      <c r="E14" s="11">
+      <c r="L14" s="11">
         <v>-11942</v>
       </c>
-      <c r="F14" s="11">
+      <c r="M14" s="11">
         <v>-18192</v>
       </c>
-      <c r="G14" s="11">
+      <c r="N14" s="11">
         <v>-5442</v>
       </c>
-      <c r="H14" s="11">
+      <c r="O14" s="11">
         <v>-11970</v>
       </c>
-      <c r="I14" s="11">
+      <c r="P14" s="11">
         <v>-17428</v>
       </c>
-      <c r="J14" s="11">
+      <c r="Q14" s="11">
         <v>-21001</v>
       </c>
-      <c r="K14" s="11">
+      <c r="R14" s="11">
         <v>-6775</v>
       </c>
-      <c r="L14" s="11">
+      <c r="S14" s="11">
         <v>-10430</v>
       </c>
-      <c r="M14" s="11">
+      <c r="T14" s="11">
         <v>-15278</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U14" s="11">
+        <v>-22190</v>
+      </c>
+      <c r="V14" s="11">
+        <v>-4457</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-10951</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>6838</v>
+      </c>
+      <c r="E16" s="11">
+        <v>10995</v>
+      </c>
+      <c r="F16" s="11">
+        <v>208</v>
+      </c>
+      <c r="G16" s="11">
+        <v>769</v>
+      </c>
+      <c r="H16" s="11">
+        <v>2104</v>
+      </c>
+      <c r="I16" s="11">
+        <v>4897</v>
+      </c>
+      <c r="J16" s="11">
+        <v>822</v>
+      </c>
+      <c r="K16" s="11">
         <v>1506</v>
       </c>
-      <c r="E16" s="11">
+      <c r="L16" s="11">
         <v>-1170</v>
       </c>
-      <c r="F16" s="11">
+      <c r="M16" s="11">
         <v>-1406</v>
       </c>
-      <c r="G16" s="11">
+      <c r="N16" s="11">
         <v>135</v>
       </c>
-      <c r="H16" s="11">
+      <c r="O16" s="11">
         <v>1006</v>
       </c>
-      <c r="I16" s="11">
+      <c r="P16" s="11">
         <v>1700</v>
       </c>
-      <c r="J16" s="11">
+      <c r="Q16" s="11">
         <v>1982</v>
       </c>
-      <c r="K16" s="11">
+      <c r="R16" s="11">
         <v>-831</v>
       </c>
-      <c r="L16" s="11">
+      <c r="S16" s="11">
         <v>-725</v>
       </c>
-      <c r="M16" s="11">
+      <c r="T16" s="11">
         <v>1233</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U16" s="11">
+        <v>2339</v>
+      </c>
+      <c r="V16" s="11">
+        <v>-176</v>
+      </c>
+      <c r="W16" s="11">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>78126</v>
+      </c>
+      <c r="E17" s="15">
+        <v>95168</v>
+      </c>
+      <c r="F17" s="15">
+        <v>23191</v>
+      </c>
+      <c r="G17" s="15">
+        <v>37206</v>
+      </c>
+      <c r="H17" s="15">
+        <v>49267</v>
+      </c>
+      <c r="I17" s="15">
+        <v>72297</v>
+      </c>
+      <c r="J17" s="15">
+        <v>10894</v>
+      </c>
+      <c r="K17" s="15">
         <v>27432</v>
       </c>
-      <c r="E17" s="15">
+      <c r="L17" s="15">
         <v>49883</v>
       </c>
-      <c r="F17" s="15">
+      <c r="M17" s="15">
         <v>70377</v>
       </c>
-      <c r="G17" s="15">
+      <c r="N17" s="15">
         <v>31761</v>
       </c>
-      <c r="H17" s="15">
+      <c r="O17" s="15">
         <v>70437</v>
       </c>
-      <c r="I17" s="15">
+      <c r="P17" s="15">
         <v>101382</v>
       </c>
-      <c r="J17" s="15">
+      <c r="Q17" s="15">
         <v>115984</v>
       </c>
-      <c r="K17" s="15">
+      <c r="R17" s="15">
         <v>37004</v>
       </c>
-      <c r="L17" s="15">
+      <c r="S17" s="15">
         <v>63165</v>
       </c>
-      <c r="M17" s="15">
+      <c r="T17" s="15">
         <v>86886</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U17" s="15">
+        <v>116235</v>
+      </c>
+      <c r="V17" s="15">
+        <v>25398</v>
+      </c>
+      <c r="W17" s="15">
+        <v>49773</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>31</v>
+      <c r="D18" s="11">
+        <v>-138</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-134</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="11">
+        <v>51</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="T18" s="11">
         <v>-728</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U18" s="11">
+        <v>-1789</v>
+      </c>
+      <c r="V18" s="11">
+        <v>-785</v>
+      </c>
+      <c r="W18" s="11">
+        <v>-1973</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>2836</v>
+      </c>
+      <c r="E19" s="13">
+        <v>4817</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1388</v>
+      </c>
+      <c r="G19" s="13">
+        <v>4434</v>
+      </c>
+      <c r="H19" s="13">
+        <v>5263</v>
+      </c>
+      <c r="I19" s="13">
+        <v>7925</v>
+      </c>
+      <c r="J19" s="13">
+        <v>934</v>
+      </c>
+      <c r="K19" s="13">
         <v>5065</v>
       </c>
-      <c r="E19" s="13">
+      <c r="L19" s="13">
         <v>5003</v>
       </c>
-      <c r="F19" s="13">
+      <c r="M19" s="13">
         <v>8004</v>
       </c>
-      <c r="G19" s="13">
+      <c r="N19" s="13">
         <v>137</v>
       </c>
-      <c r="H19" s="13">
+      <c r="O19" s="13">
         <v>11244</v>
       </c>
-      <c r="I19" s="13">
+      <c r="P19" s="13">
         <v>12433</v>
       </c>
-      <c r="J19" s="13">
+      <c r="Q19" s="13">
         <v>17046</v>
       </c>
-      <c r="K19" s="13">
+      <c r="R19" s="13">
         <v>1402</v>
       </c>
-      <c r="L19" s="13">
+      <c r="S19" s="13">
         <v>13056</v>
       </c>
-      <c r="M19" s="13">
+      <c r="T19" s="13">
         <v>13812</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U19" s="13">
+        <v>20956</v>
+      </c>
+      <c r="V19" s="13">
+        <v>-728</v>
+      </c>
+      <c r="W19" s="13">
+        <v>10945</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>80824</v>
+      </c>
+      <c r="E20" s="17">
+        <v>99851</v>
+      </c>
+      <c r="F20" s="17">
+        <v>24579</v>
+      </c>
+      <c r="G20" s="17">
+        <v>41640</v>
+      </c>
+      <c r="H20" s="17">
+        <v>54530</v>
+      </c>
+      <c r="I20" s="17">
+        <v>80221</v>
+      </c>
+      <c r="J20" s="17">
+        <v>11828</v>
+      </c>
+      <c r="K20" s="17">
         <v>32498</v>
       </c>
-      <c r="E20" s="17">
+      <c r="L20" s="17">
         <v>54886</v>
       </c>
-      <c r="F20" s="17">
+      <c r="M20" s="17">
         <v>78381</v>
       </c>
-      <c r="G20" s="17">
+      <c r="N20" s="17">
         <v>31898</v>
       </c>
-      <c r="H20" s="17">
+      <c r="O20" s="17">
         <v>81680</v>
       </c>
-      <c r="I20" s="17">
+      <c r="P20" s="17">
         <v>113814</v>
       </c>
-      <c r="J20" s="17">
+      <c r="Q20" s="17">
         <v>133030</v>
       </c>
-      <c r="K20" s="17">
+      <c r="R20" s="17">
         <v>38406</v>
       </c>
-      <c r="L20" s="17">
+      <c r="S20" s="17">
         <v>76221</v>
       </c>
-      <c r="M20" s="17">
+      <c r="T20" s="17">
         <v>99970</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U20" s="17">
+        <v>135402</v>
+      </c>
+      <c r="V20" s="17">
+        <v>23886</v>
+      </c>
+      <c r="W20" s="17">
+        <v>58746</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-3204</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-7256</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-630</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-1603</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-2524</v>
+      </c>
+      <c r="I21" s="13">
+        <v>-4833</v>
+      </c>
+      <c r="J21" s="13">
+        <v>-591</v>
+      </c>
+      <c r="K21" s="13">
         <v>-1334</v>
       </c>
-      <c r="E21" s="13">
+      <c r="L21" s="13">
         <v>-2822</v>
       </c>
-      <c r="F21" s="13">
+      <c r="M21" s="13">
         <v>-3660</v>
       </c>
-      <c r="G21" s="13">
+      <c r="N21" s="13">
         <v>-1077</v>
       </c>
-      <c r="H21" s="13">
+      <c r="O21" s="13">
         <v>-5408</v>
       </c>
-      <c r="I21" s="13">
+      <c r="P21" s="13">
         <v>-17245</v>
       </c>
-      <c r="J21" s="13">
-        <v>-3186</v>
-      </c>
-      <c r="K21" s="13">
+      <c r="Q21" s="13">
+        <v>-15914</v>
+      </c>
+      <c r="R21" s="13">
         <v>-7221</v>
       </c>
-      <c r="L21" s="13">
+      <c r="S21" s="13">
         <v>-12765</v>
       </c>
-      <c r="M21" s="13">
+      <c r="T21" s="13">
         <v>-17354</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U21" s="13">
+        <v>-17998</v>
+      </c>
+      <c r="V21" s="13">
+        <v>-4469</v>
+      </c>
+      <c r="W21" s="13">
+        <v>-9384</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>77620</v>
+      </c>
+      <c r="E22" s="17">
+        <v>92595</v>
+      </c>
+      <c r="F22" s="17">
+        <v>23949</v>
+      </c>
+      <c r="G22" s="17">
+        <v>40037</v>
+      </c>
+      <c r="H22" s="17">
+        <v>52005</v>
+      </c>
+      <c r="I22" s="17">
+        <v>75388</v>
+      </c>
+      <c r="J22" s="17">
+        <v>11236</v>
+      </c>
+      <c r="K22" s="17">
         <v>31164</v>
       </c>
-      <c r="E22" s="17">
+      <c r="L22" s="17">
         <v>52064</v>
       </c>
-      <c r="F22" s="17">
+      <c r="M22" s="17">
         <v>74721</v>
       </c>
-      <c r="G22" s="17">
+      <c r="N22" s="17">
         <v>30820</v>
       </c>
-      <c r="H22" s="17">
+      <c r="O22" s="17">
         <v>76273</v>
       </c>
-      <c r="I22" s="17">
+      <c r="P22" s="17">
         <v>96569</v>
       </c>
-      <c r="J22" s="17">
-        <v>129845</v>
-      </c>
-      <c r="K22" s="17">
+      <c r="Q22" s="17">
+        <v>117117</v>
+      </c>
+      <c r="R22" s="17">
         <v>31185</v>
       </c>
-      <c r="L22" s="17">
+      <c r="S22" s="17">
         <v>63456</v>
       </c>
-      <c r="M22" s="17">
+      <c r="T22" s="17">
         <v>82616</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U22" s="17">
+        <v>117404</v>
+      </c>
+      <c r="V22" s="17">
+        <v>19416</v>
+      </c>
+      <c r="W22" s="17">
+        <v>49361</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>77620</v>
+      </c>
+      <c r="E24" s="17">
+        <v>92595</v>
+      </c>
+      <c r="F24" s="17">
+        <v>23949</v>
+      </c>
+      <c r="G24" s="17">
+        <v>40037</v>
+      </c>
+      <c r="H24" s="17">
+        <v>52005</v>
+      </c>
+      <c r="I24" s="17">
+        <v>75388</v>
+      </c>
+      <c r="J24" s="17">
+        <v>11236</v>
+      </c>
+      <c r="K24" s="17">
         <v>31164</v>
       </c>
-      <c r="E24" s="17">
+      <c r="L24" s="17">
         <v>52064</v>
       </c>
-      <c r="F24" s="17">
+      <c r="M24" s="17">
         <v>74721</v>
       </c>
-      <c r="G24" s="17">
+      <c r="N24" s="17">
         <v>30820</v>
       </c>
-      <c r="H24" s="17">
+      <c r="O24" s="17">
         <v>76273</v>
       </c>
-      <c r="I24" s="17">
+      <c r="P24" s="17">
         <v>96569</v>
       </c>
-      <c r="J24" s="17">
-        <v>129845</v>
-      </c>
-      <c r="K24" s="17">
+      <c r="Q24" s="17">
+        <v>117117</v>
+      </c>
+      <c r="R24" s="17">
         <v>31185</v>
       </c>
-      <c r="L24" s="17">
+      <c r="S24" s="17">
         <v>63456</v>
       </c>
-      <c r="M24" s="17">
+      <c r="T24" s="17">
         <v>82616</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U24" s="17">
+        <v>117404</v>
+      </c>
+      <c r="V24" s="17">
+        <v>19416</v>
+      </c>
+      <c r="W24" s="17">
+        <v>49361</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1364,46 +1990,106 @@
       <c r="M25" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0</v>
+      </c>
+      <c r="S25" s="13">
+        <v>0</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <v>0</v>
+      </c>
+      <c r="V25" s="13">
+        <v>0</v>
+      </c>
+      <c r="W25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
+        <v>62400</v>
+      </c>
+      <c r="E26" s="11">
+        <v>59314</v>
+      </c>
+      <c r="F26" s="11">
+        <v>43566</v>
+      </c>
+      <c r="G26" s="11">
+        <v>46864</v>
+      </c>
+      <c r="H26" s="11">
+        <v>48071</v>
+      </c>
+      <c r="I26" s="11">
+        <v>74056</v>
+      </c>
+      <c r="J26" s="11">
+        <v>58336</v>
+      </c>
+      <c r="K26" s="11">
         <v>289115</v>
       </c>
-      <c r="E26" s="11">
+      <c r="L26" s="11">
         <v>254590</v>
       </c>
-      <c r="F26" s="11">
+      <c r="M26" s="11">
         <v>247675</v>
       </c>
-      <c r="G26" s="11">
+      <c r="N26" s="11">
         <v>240035</v>
       </c>
-      <c r="H26" s="11">
+      <c r="O26" s="11">
         <v>225983</v>
       </c>
-      <c r="I26" s="11">
+      <c r="P26" s="11">
         <v>215265</v>
       </c>
-      <c r="J26" s="11">
+      <c r="Q26" s="11">
         <v>212239</v>
       </c>
-      <c r="K26" s="11">
+      <c r="R26" s="11">
         <v>190575</v>
       </c>
-      <c r="L26" s="11">
+      <c r="S26" s="11">
         <v>185463</v>
       </c>
-      <c r="M26" s="11">
+      <c r="T26" s="11">
         <v>176104</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="U26" s="11">
+        <v>158589</v>
+      </c>
+      <c r="V26" s="11">
+        <v>108538</v>
+      </c>
+      <c r="W26" s="11">
+        <v>110752</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1436,8 +2122,38 @@
       <c r="M27" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <v>0</v>
+      </c>
+      <c r="T27" s="13">
+        <v>0</v>
+      </c>
+      <c r="U27" s="13">
+        <v>0</v>
+      </c>
+      <c r="V27" s="13">
+        <v>0</v>
+      </c>
+      <c r="W27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1450,6 +2166,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
